--- a/For_PANDAS.xlsx
+++ b/For_PANDAS.xlsx
@@ -67,10 +67,10 @@
     <t>nature_of_business_class</t>
   </si>
   <si>
-    <t>nature_of_business_RG</t>
-  </si>
-  <si>
     <t>nature_of_business</t>
+  </si>
+  <si>
+    <t>nature_of_business_2</t>
   </si>
   <si>
     <t>actual_business</t>
@@ -1539,16 +1539,47 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1561,19 +1592,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1585,39 +1608,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1633,13 +1623,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1649,7 +1633,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1662,9 +1646,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1684,15 +1683,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1707,7 +1707,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1719,25 +1773,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1749,43 +1785,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1797,25 +1803,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1839,19 +1827,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1869,25 +1887,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1910,15 +1910,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1929,6 +1920,32 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1949,28 +1966,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1993,8 +1993,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2003,7 +2003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2021,130 +2021,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2479,8 +2479,8 @@
   <sheetPr/>
   <dimension ref="A1:AS66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S8" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>

--- a/For_PANDAS.xlsx
+++ b/For_PANDAS.xlsx
@@ -2242,11 +2242,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:AB66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2344,7 +2344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:28">
+    <row r="2" spans="1:28">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>9466.67</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:28">
+    <row r="4" spans="1:28">
       <c r="A4" s="2" t="s">
         <v>54</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>11833.33</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:28">
+    <row r="11" spans="1:28">
       <c r="A11" s="2" t="s">
         <v>108</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>56666.67</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:28">
+    <row r="12" spans="1:28">
       <c r="A12" s="2" t="s">
         <v>116</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>29583.33</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:28">
+    <row r="13" spans="1:28">
       <c r="A13" s="2" t="s">
         <v>122</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>23666.67</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:28">
+    <row r="15" spans="1:28">
       <c r="A15" s="3" t="s">
         <v>137</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>11833.33</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:28">
+    <row r="17" spans="1:28">
       <c r="A17" s="2" t="s">
         <v>150</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>100833.33</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:28">
+    <row r="18" spans="1:28">
       <c r="A18" s="3" t="s">
         <v>155</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>23666.67</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:28">
+    <row r="20" spans="1:28">
       <c r="A20" s="2" t="s">
         <v>167</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>60500</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:28">
+    <row r="21" spans="1:28">
       <c r="A21" s="2" t="s">
         <v>173</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>17750</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:28">
+    <row r="22" spans="1:28">
       <c r="A22" s="3" t="s">
         <v>179</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>40333.33</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:28">
+    <row r="26" spans="1:28">
       <c r="A26" s="2" t="s">
         <v>201</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>23666.67</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:28">
+    <row r="30" spans="1:28">
       <c r="A30" s="3" t="s">
         <v>225</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>23666.67</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:28">
+    <row r="33" spans="1:28">
       <c r="A33" s="2" t="s">
         <v>240</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>35500</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:28">
+    <row r="36" spans="1:28">
       <c r="A36" s="2" t="s">
         <v>256</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>35500</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:28">
+    <row r="37" spans="1:28">
       <c r="A37" s="3" t="s">
         <v>261</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>59166.67</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:28">
+    <row r="42" spans="1:28">
       <c r="A42" s="3" t="s">
         <v>290</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>59166.67</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:28">
+    <row r="43" spans="1:28">
       <c r="A43" s="3" t="s">
         <v>295</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>11833.33</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:28">
+    <row r="44" spans="1:28">
       <c r="A44" s="2" t="s">
         <v>301</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>29583.33</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:28">
+    <row r="45" spans="1:28">
       <c r="A45" s="3" t="s">
         <v>306</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>40333.33</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:28">
+    <row r="47" spans="1:28">
       <c r="A47" s="3" t="s">
         <v>316</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>50416.67</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:28">
+    <row r="48" spans="1:28">
       <c r="A48" s="3" t="s">
         <v>321</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>35500</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:28">
+    <row r="50" spans="1:28">
       <c r="A50" s="2" t="s">
         <v>332</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>60500</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:28">
+    <row r="58" spans="1:28">
       <c r="A58" s="3" t="s">
         <v>375</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>47333.33</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:28">
+    <row r="63" spans="1:28">
       <c r="A63" s="2" t="s">
         <v>402</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>47333.33</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:28">
+    <row r="65" spans="1:28">
       <c r="A65" s="3" t="s">
         <v>413</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>35500</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:28">
+    <row r="66" spans="1:28">
       <c r="A66" t="s">
         <v>420</v>
       </c>
@@ -7935,17 +7935,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB66">
-    <filterColumn colId="22">
-      <customFilters>
-        <customFilter operator="equal" val="1"/>
-      </customFilters>
-    </filterColumn>
-    <sortState ref="A2:AB66">
-      <sortCondition ref="AA1"/>
-    </sortState>
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
